--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value867.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value867.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.156133114853407</v>
+        <v>1.467281579971313</v>
       </c>
       <c r="B1">
-        <v>2.599540452453038</v>
+        <v>3.221961975097656</v>
       </c>
       <c r="C1">
-        <v>4.164279885304991</v>
+        <v>2.777711153030396</v>
       </c>
       <c r="D1">
-        <v>2.630491106965184</v>
+        <v>2.242633581161499</v>
       </c>
       <c r="E1">
-        <v>1.163077193854269</v>
+        <v>1.456994295120239</v>
       </c>
     </row>
   </sheetData>
